--- a/SI1_RNAseq_libraries_used.xlsx
+++ b/SI1_RNAseq_libraries_used.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newc6127\Desktop\PhD\AsexualGeneConversion_paper\figures\depth_per_library_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{708B3FED-E57A-45AF-968A-58036EC3D674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A14857-1ED8-4766-865A-E6173EF594E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6ABBB68E-1667-43AA-9AF6-607745C99249}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="233">
   <si>
     <t>SRR</t>
   </si>
@@ -723,6 +723,18 @@
   </si>
   <si>
     <t>PRJNA790629</t>
+  </si>
+  <si>
+    <t>SRRXXXXXXX</t>
+  </si>
+  <si>
+    <t>PRJNAXXXXXX</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Oxford populaiton - SRA in process of submission</t>
   </si>
 </sst>
 </file>
@@ -1101,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C23465-6769-44CA-B6AA-7C49EFDB7F23}">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F210" sqref="F210"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,7 +1125,7 @@
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1123,8 +1135,11 @@
       <c r="C1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1135,7 +1150,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1146,7 +1161,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1157,7 +1172,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1168,7 +1183,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1179,7 +1194,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1205,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1201,7 +1216,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1227,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1223,7 +1238,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1234,7 +1249,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1245,7 +1260,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1256,7 +1271,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1267,7 +1282,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1278,7 +1293,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3401,7 +3416,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>220</v>
       </c>
@@ -3412,7 +3427,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>221</v>
       </c>
@@ -3423,7 +3438,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>222</v>
       </c>
@@ -3434,7 +3449,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>223</v>
       </c>
@@ -3445,7 +3460,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>224</v>
       </c>
@@ -3456,7 +3471,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>225</v>
       </c>
@@ -3467,7 +3482,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>226</v>
       </c>
@@ -3476,6 +3491,34 @@
       </c>
       <c r="C215" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>229</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C216" t="s">
+        <v>191</v>
+      </c>
+      <c r="D216" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>229</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C217" t="s">
+        <v>191</v>
+      </c>
+      <c r="D217" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
